--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111631615</v>
+        <v>111632005</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679347.335090697</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R2" t="n">
-        <v>6612732.142182259</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111632126</v>
+        <v>111632616</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679400.8667491183</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R3" t="n">
-        <v>6612685.041705586</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111631820</v>
+        <v>111632126</v>
       </c>
       <c r="B4" t="n">
-        <v>88819</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5685</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679445.4687985049</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R4" t="n">
-        <v>6612665.387322281</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632616</v>
+        <v>111632455</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679697.9675722983</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R5" t="n">
-        <v>6612862.479549611</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111632005</v>
+        <v>111631648</v>
       </c>
       <c r="B6" t="n">
-        <v>89369</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5447</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679445.4687985049</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R6" t="n">
-        <v>6612665.387322281</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111632936</v>
+        <v>111631780</v>
       </c>
       <c r="B7" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679389.9201578975</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R7" t="n">
-        <v>6612881.656256998</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111632295</v>
+        <v>111631820</v>
       </c>
       <c r="B8" t="n">
-        <v>89419</v>
+        <v>88819</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>5685</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679615.9172154681</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R8" t="n">
-        <v>6612689.273485693</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631555</v>
+        <v>111631615</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111632455</v>
+        <v>111631555</v>
       </c>
       <c r="B11" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679622.1256333978</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R11" t="n">
-        <v>6612739.744341305</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111631648</v>
+        <v>111632936</v>
       </c>
       <c r="B12" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679488.9265337941</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R12" t="n">
-        <v>6612786.06067825</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111631780</v>
+        <v>111632295</v>
       </c>
       <c r="B13" t="n">
-        <v>90687</v>
+        <v>89419</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5964</v>
+        <v>1204</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679488.9265337941</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R13" t="n">
-        <v>6612786.06067825</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632005</v>
+        <v>111631648</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>90678</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>4366</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679445.4687985049</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R2" t="n">
-        <v>6612665.387322281</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111632616</v>
+        <v>111631820</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>88819</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>5685</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679697.9675722983</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R3" t="n">
-        <v>6612862.479549611</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111632126</v>
+        <v>111631555</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679400.8667491183</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R4" t="n">
-        <v>6612685.041705586</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632455</v>
+        <v>111632616</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679622.1256333978</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R5" t="n">
-        <v>6612739.744341305</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631648</v>
+        <v>111631615</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679488.9265337941</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R6" t="n">
-        <v>6612786.06067825</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111631780</v>
+        <v>111632455</v>
       </c>
       <c r="B7" t="n">
         <v>90687</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679488.9265337941</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R7" t="n">
-        <v>6612786.06067825</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111631820</v>
+        <v>111632005</v>
       </c>
       <c r="B8" t="n">
-        <v>88819</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5685</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111631628</v>
+        <v>111632295</v>
       </c>
       <c r="B9" t="n">
-        <v>89183</v>
+        <v>89419</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3215</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679347.335090697</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R9" t="n">
-        <v>6612732.142182259</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631615</v>
+        <v>111631780</v>
       </c>
       <c r="B10" t="n">
         <v>90687</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679347.335090697</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R10" t="n">
-        <v>6612732.142182259</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111631555</v>
+        <v>111632936</v>
       </c>
       <c r="B11" t="n">
         <v>90658</v>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679347.335090697</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R11" t="n">
-        <v>6612732.142182259</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111632936</v>
+        <v>111631628</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>89183</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>3215</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679389.9201578975</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R12" t="n">
-        <v>6612881.656256998</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111632295</v>
+        <v>111632126</v>
       </c>
       <c r="B13" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679615.9172154681</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R13" t="n">
-        <v>6612689.273485693</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111631648</v>
+        <v>111632616</v>
       </c>
       <c r="B2" t="n">
-        <v>90678</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4366</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679488.9265337941</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R2" t="n">
-        <v>6612786.06067825</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111631820</v>
+        <v>111631648</v>
       </c>
       <c r="B3" t="n">
-        <v>88819</v>
+        <v>90678</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5685</v>
+        <v>4366</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679445.4687985049</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R3" t="n">
-        <v>6612665.387322281</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111631555</v>
+        <v>111632455</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679347.335090697</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R4" t="n">
-        <v>6612732.142182259</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632616</v>
+        <v>111632126</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679697.9675722983</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R5" t="n">
-        <v>6612862.479549611</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631615</v>
+        <v>111631628</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111632455</v>
+        <v>111632295</v>
       </c>
       <c r="B7" t="n">
-        <v>90687</v>
+        <v>89419</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>1204</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679622.1256333978</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R7" t="n">
-        <v>6612739.744341305</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111632005</v>
+        <v>111631820</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>88819</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>5685</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111632295</v>
+        <v>111631780</v>
       </c>
       <c r="B9" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679615.9172154681</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R9" t="n">
-        <v>6612689.273485693</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631780</v>
+        <v>111631555</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679488.9265337941</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R10" t="n">
-        <v>6612786.06067825</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111631628</v>
+        <v>111632005</v>
       </c>
       <c r="B12" t="n">
-        <v>89183</v>
+        <v>89369</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3215</v>
+        <v>5447</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679347.335090697</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R12" t="n">
-        <v>6612732.142182259</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111632126</v>
+        <v>111631615</v>
       </c>
       <c r="B13" t="n">
         <v>90687</v>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679400.8667491183</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R13" t="n">
-        <v>6612685.041705586</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632616</v>
+        <v>111631615</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679697.9675722983</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R2" t="n">
-        <v>6612862.479549611</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111631648</v>
+        <v>111631628</v>
       </c>
       <c r="B3" t="n">
-        <v>90678</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4366</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679488.9265337941</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R3" t="n">
-        <v>6612786.06067825</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111632455</v>
+        <v>111631555</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679622.1256333978</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R4" t="n">
-        <v>6612739.744341305</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631628</v>
+        <v>111631820</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>88819</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>5685</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679347.335090697</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R6" t="n">
-        <v>6612732.142182259</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111632295</v>
+        <v>111632455</v>
       </c>
       <c r="B7" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679615.9172154681</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R7" t="n">
-        <v>6612689.273485693</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111631820</v>
+        <v>111631780</v>
       </c>
       <c r="B8" t="n">
-        <v>88819</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5685</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679445.4687985049</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R8" t="n">
-        <v>6612665.387322281</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111631780</v>
+        <v>111632295</v>
       </c>
       <c r="B9" t="n">
-        <v>90687</v>
+        <v>89419</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5964</v>
+        <v>1204</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679488.9265337941</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R9" t="n">
-        <v>6612786.06067825</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631555</v>
+        <v>111632616</v>
       </c>
       <c r="B10" t="n">
-        <v>90658</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4361</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679347.335090697</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R10" t="n">
-        <v>6612732.142182259</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111631615</v>
+        <v>111631648</v>
       </c>
       <c r="B13" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,21 +1939,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679347.335090697</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R13" t="n">
-        <v>6612732.142182259</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111631615</v>
+        <v>111632005</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679347.335090697</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R2" t="n">
-        <v>6612732.142182259</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111631628</v>
+        <v>111631615</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111631555</v>
+        <v>111631628</v>
       </c>
       <c r="B4" t="n">
-        <v>90658</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4361</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632126</v>
+        <v>111632616</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679400.8667491183</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R5" t="n">
-        <v>6612685.041705586</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631820</v>
+        <v>111631780</v>
       </c>
       <c r="B6" t="n">
-        <v>88819</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5685</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679445.4687985049</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R6" t="n">
-        <v>6612665.387322281</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111632455</v>
+        <v>111631820</v>
       </c>
       <c r="B7" t="n">
-        <v>90687</v>
+        <v>88819</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5964</v>
+        <v>5685</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679622.1256333978</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R7" t="n">
-        <v>6612739.744341305</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111631780</v>
+        <v>111632295</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>89419</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679488.9265337941</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R8" t="n">
-        <v>6612786.06067825</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111632295</v>
+        <v>111631555</v>
       </c>
       <c r="B9" t="n">
-        <v>89419</v>
+        <v>90658</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1204</v>
+        <v>4361</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679615.9172154681</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R9" t="n">
-        <v>6612689.273485693</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111632616</v>
+        <v>111632126</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>90687</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679697.9675722983</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R10" t="n">
-        <v>6612862.479549611</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111632936</v>
+        <v>111632455</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679389.9201578975</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R11" t="n">
-        <v>6612881.656256998</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111632005</v>
+        <v>111632936</v>
       </c>
       <c r="B12" t="n">
-        <v>89369</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5447</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679445.4687985049</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R12" t="n">
-        <v>6612665.387322281</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632005</v>
+        <v>111632455</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679445.4687985049</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R2" t="n">
-        <v>6612665.387322281</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111631628</v>
+        <v>111632295</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>89419</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>1204</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679347.335090697</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R4" t="n">
-        <v>6612732.142182259</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632616</v>
+        <v>111631555</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>90658</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>4361</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679697.9675722983</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R5" t="n">
-        <v>6612862.479549611</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631780</v>
+        <v>111631648</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111631820</v>
+        <v>111632616</v>
       </c>
       <c r="B7" t="n">
-        <v>88819</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5685</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679445.4687985049</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R7" t="n">
-        <v>6612665.387322281</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111632295</v>
+        <v>111631780</v>
       </c>
       <c r="B8" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679615.9172154681</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R8" t="n">
-        <v>6612689.273485693</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111631555</v>
+        <v>111632005</v>
       </c>
       <c r="B9" t="n">
-        <v>90658</v>
+        <v>89369</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4361</v>
+        <v>5447</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679347.335090697</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R9" t="n">
-        <v>6612732.142182259</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111632126</v>
+        <v>111631628</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679400.8667491183</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R10" t="n">
-        <v>6612685.041705586</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111632455</v>
+        <v>111632126</v>
       </c>
       <c r="B11" t="n">
         <v>90687</v>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679622.1256333978</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R11" t="n">
-        <v>6612739.744341305</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111632936</v>
+        <v>111631820</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>88819</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>5685</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679389.9201578975</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R12" t="n">
-        <v>6612881.656256998</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111631648</v>
+        <v>111632936</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679488.9265337941</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R13" t="n">
-        <v>6612786.06067825</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632455</v>
+        <v>111632126</v>
       </c>
       <c r="B2" t="n">
         <v>90687</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679622.1256333978</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R2" t="n">
-        <v>6612739.744341305</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111631615</v>
+        <v>111631628</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111632295</v>
+        <v>111631615</v>
       </c>
       <c r="B4" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679615.9172154681</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R4" t="n">
-        <v>6612689.273485693</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,7 +1019,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111631555</v>
+        <v>111632936</v>
       </c>
       <c r="B5" t="n">
         <v>90658</v>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679347.335090697</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R5" t="n">
-        <v>6612732.142182259</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631648</v>
+        <v>111632295</v>
       </c>
       <c r="B6" t="n">
-        <v>90678</v>
+        <v>89419</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>4366</v>
+        <v>1204</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679488.9265337941</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R6" t="n">
-        <v>6612786.06067825</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111632616</v>
+        <v>111631820</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>88819</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>5685</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679697.9675722983</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R7" t="n">
-        <v>6612862.479549611</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631628</v>
+        <v>111631648</v>
       </c>
       <c r="B10" t="n">
-        <v>89183</v>
+        <v>90678</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3215</v>
+        <v>4366</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679347.335090697</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R10" t="n">
-        <v>6612732.142182259</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111632126</v>
+        <v>111632616</v>
       </c>
       <c r="B11" t="n">
-        <v>90687</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5964</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679400.8667491183</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R11" t="n">
-        <v>6612685.041705586</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111631820</v>
+        <v>111631555</v>
       </c>
       <c r="B12" t="n">
-        <v>88819</v>
+        <v>90658</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5685</v>
+        <v>4361</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679445.4687985049</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R12" t="n">
-        <v>6612665.387322281</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111632936</v>
+        <v>111632455</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90687</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>5964</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679389.9201578975</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R13" t="n">
-        <v>6612881.656256998</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632126</v>
+        <v>111632005</v>
       </c>
       <c r="B2" t="n">
-        <v>90687</v>
+        <v>89369</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5964</v>
+        <v>5447</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679400.8667491183</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R2" t="n">
-        <v>6612685.041705586</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111631628</v>
+        <v>111632936</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>90658</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>4361</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679347.335090697</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R3" t="n">
-        <v>6612732.142182259</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632936</v>
+        <v>111632616</v>
       </c>
       <c r="B5" t="n">
-        <v>90658</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4361</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679389.9201578975</v>
+        <v>679697.9675722983</v>
       </c>
       <c r="R5" t="n">
-        <v>6612881.656256998</v>
+        <v>6612862.479549611</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111632295</v>
+        <v>111632126</v>
       </c>
       <c r="B6" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679615.9172154681</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R6" t="n">
-        <v>6612689.273485693</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111631820</v>
+        <v>111631628</v>
       </c>
       <c r="B7" t="n">
-        <v>88819</v>
+        <v>89183</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1261,21 +1261,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5685</v>
+        <v>3215</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679445.4687985049</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R7" t="n">
-        <v>6612665.387322281</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111631780</v>
+        <v>111632455</v>
       </c>
       <c r="B8" t="n">
         <v>90687</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679488.9265337941</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R8" t="n">
-        <v>6612786.06067825</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111632005</v>
+        <v>111631820</v>
       </c>
       <c r="B9" t="n">
-        <v>89369</v>
+        <v>88819</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>5685</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631648</v>
+        <v>111631780</v>
       </c>
       <c r="B10" t="n">
-        <v>90678</v>
+        <v>90687</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1600,21 +1600,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4366</v>
+        <v>5964</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111632616</v>
+        <v>111631648</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>90678</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>4366</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679697.9675722983</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R11" t="n">
-        <v>6612862.479549611</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111631555</v>
+        <v>111632295</v>
       </c>
       <c r="B12" t="n">
-        <v>90658</v>
+        <v>89419</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4361</v>
+        <v>1204</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679347.335090697</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R12" t="n">
-        <v>6612732.142182259</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111632455</v>
+        <v>111631555</v>
       </c>
       <c r="B13" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679622.1256333978</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R13" t="n">
-        <v>6612739.744341305</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632005</v>
+        <v>111632936</v>
       </c>
       <c r="B2" t="n">
-        <v>89369</v>
+        <v>90658</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5447</v>
+        <v>4361</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679445.4687985049</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R2" t="n">
-        <v>6612665.387322281</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111632936</v>
+        <v>111632005</v>
       </c>
       <c r="B3" t="n">
-        <v>90658</v>
+        <v>89369</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4361</v>
+        <v>5447</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679389.9201578975</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R3" t="n">
-        <v>6612881.656256998</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632936</v>
+        <v>111632295</v>
       </c>
       <c r="B2" t="n">
-        <v>90658</v>
+        <v>89419</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4361</v>
+        <v>1204</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679389.9201578975</v>
+        <v>679615.9172154681</v>
       </c>
       <c r="R2" t="n">
-        <v>6612881.656256998</v>
+        <v>6612689.273485693</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111632005</v>
+        <v>111631628</v>
       </c>
       <c r="B3" t="n">
-        <v>89369</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5447</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679445.4687985049</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R3" t="n">
-        <v>6612665.387322281</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111631615</v>
+        <v>111632455</v>
       </c>
       <c r="B4" t="n">
         <v>90687</v>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679347.335090697</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R4" t="n">
-        <v>6612732.142182259</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111632126</v>
+        <v>111631780</v>
       </c>
       <c r="B6" t="n">
         <v>90687</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679400.8667491183</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R6" t="n">
-        <v>6612685.041705586</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111631628</v>
+        <v>111632936</v>
       </c>
       <c r="B7" t="n">
-        <v>89183</v>
+        <v>90658</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3215</v>
+        <v>4361</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679347.335090697</v>
+        <v>679389.9201578975</v>
       </c>
       <c r="R7" t="n">
-        <v>6612732.142182259</v>
+        <v>6612881.656256998</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111632455</v>
+        <v>111632005</v>
       </c>
       <c r="B8" t="n">
-        <v>90687</v>
+        <v>89369</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1374,21 +1374,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5964</v>
+        <v>5447</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679622.1256333978</v>
+        <v>679445.4687985049</v>
       </c>
       <c r="R8" t="n">
-        <v>6612739.744341305</v>
+        <v>6612665.387322281</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111631780</v>
+        <v>111632126</v>
       </c>
       <c r="B10" t="n">
         <v>90687</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679488.9265337941</v>
+        <v>679400.8667491183</v>
       </c>
       <c r="R10" t="n">
-        <v>6612786.06067825</v>
+        <v>6612685.041705586</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111631648</v>
+        <v>111631555</v>
       </c>
       <c r="B11" t="n">
-        <v>90678</v>
+        <v>90658</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679488.9265337941</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R11" t="n">
-        <v>6612786.06067825</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111632295</v>
+        <v>111631615</v>
       </c>
       <c r="B12" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679615.9172154681</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R12" t="n">
-        <v>6612689.273485693</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111631555</v>
+        <v>111631648</v>
       </c>
       <c r="B13" t="n">
-        <v>90658</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4361</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679347.335090697</v>
+        <v>679488.9265337941</v>
       </c>
       <c r="R13" t="n">
-        <v>6612732.142182259</v>
+        <v>6612786.06067825</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111631628</v>
+        <v>111632455</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679347.335090697</v>
+        <v>679622.1256333978</v>
       </c>
       <c r="R3" t="n">
-        <v>6612732.142182259</v>
+        <v>6612739.744341305</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111632455</v>
+        <v>111631628</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679622.1256333978</v>
+        <v>679347.335090697</v>
       </c>
       <c r="R4" t="n">
-        <v>6612739.744341305</v>
+        <v>6612732.142182259</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 25512-2022.xlsx
+++ b/artfynd/A 25512-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111632295</v>
+        <v>111632455</v>
       </c>
       <c r="B2" t="n">
-        <v>89419</v>
+        <v>90687</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1204</v>
+        <v>5964</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>679615.9172154681</v>
+        <v>679622</v>
       </c>
       <c r="R2" t="n">
-        <v>6612689.273485693</v>
+        <v>6612740</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -793,7 +793,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111632455</v>
+        <v>111632126</v>
       </c>
       <c r="B3" t="n">
         <v>90687</v>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>679622.1256333978</v>
+        <v>679401</v>
       </c>
       <c r="R3" t="n">
-        <v>6612739.744341305</v>
+        <v>6612685</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111631628</v>
+        <v>111631780</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>679347.335090697</v>
+        <v>679489</v>
       </c>
       <c r="R4" t="n">
-        <v>6612732.142182259</v>
+        <v>6612786</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111632616</v>
+        <v>111631615</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1031,25 +1031,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>679697.9675722983</v>
+        <v>679347</v>
       </c>
       <c r="R5" t="n">
-        <v>6612862.479549611</v>
+        <v>6612732</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111631780</v>
+        <v>111631628</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>679488.9265337941</v>
+        <v>679347</v>
       </c>
       <c r="R6" t="n">
-        <v>6612786.06067825</v>
+        <v>6612732</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111632936</v>
+        <v>111631555</v>
       </c>
       <c r="B7" t="n">
         <v>90658</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>679389.9201578975</v>
+        <v>679347</v>
       </c>
       <c r="R7" t="n">
-        <v>6612881.656256998</v>
+        <v>6612732</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111632005</v>
+        <v>111632295</v>
       </c>
       <c r="B8" t="n">
-        <v>89369</v>
+        <v>89419</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5447</v>
+        <v>1204</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>679445.4687985049</v>
+        <v>679616</v>
       </c>
       <c r="R8" t="n">
-        <v>6612665.387322281</v>
+        <v>6612689</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111631820</v>
+        <v>111632616</v>
       </c>
       <c r="B9" t="n">
-        <v>88819</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5685</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>679445.4687985049</v>
+        <v>679698</v>
       </c>
       <c r="R9" t="n">
-        <v>6612665.387322281</v>
+        <v>6612862</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111632126</v>
+        <v>111632936</v>
       </c>
       <c r="B10" t="n">
-        <v>90687</v>
+        <v>90658</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5964</v>
+        <v>4361</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Orange taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum aurantiacum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Batsch:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>679400.8667491183</v>
+        <v>679390</v>
       </c>
       <c r="R10" t="n">
-        <v>6612685.041705586</v>
+        <v>6612882</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111631555</v>
+        <v>111632005</v>
       </c>
       <c r="B11" t="n">
-        <v>90658</v>
+        <v>89369</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4361</v>
+        <v>5447</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Orange taggsvamp</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum aurantiacum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Batsch:Fr.) P.Karst.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>679347.335090697</v>
+        <v>679445</v>
       </c>
       <c r="R11" t="n">
-        <v>6612732.142182259</v>
+        <v>6612665</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111631615</v>
+        <v>111631648</v>
       </c>
       <c r="B12" t="n">
-        <v>90687</v>
+        <v>90678</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1826,21 +1826,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5964</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>679347.335090697</v>
+        <v>679489</v>
       </c>
       <c r="R12" t="n">
-        <v>6612732.142182259</v>
+        <v>6612786</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111631648</v>
+        <v>111631820</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>88819</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1939,21 +1939,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>5685</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>679488.9265337941</v>
+        <v>679445</v>
       </c>
       <c r="R13" t="n">
-        <v>6612786.06067825</v>
+        <v>6612665</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
